--- a/inst/extdata/SpeciesParameters.xlsx
+++ b/inst/extdata/SpeciesParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4E70AE-01CB-423A-98C6-A4FE56226AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7C0EAC-57AD-42C3-818B-F428D113038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="104">
   <si>
     <t>Container Path</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>Organism|Lumen|UpperJejunum|Tivozanib_EHC</t>
+  </si>
+  <si>
+    <t>EHC continuous fraction</t>
   </si>
 </sst>
 </file>
@@ -400,9 +403,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -440,9 +443,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,26 +478,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,26 +513,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -720,21 +689,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225:XFD225"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="49.5859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5859375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -759,7 +728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -770,7 +739,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -781,7 +750,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -792,7 +761,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -803,7 +772,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -814,7 +783,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -825,7 +794,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -839,7 +808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -853,7 +822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -867,7 +836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -881,7 +850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -895,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -909,7 +878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -923,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -937,7 +906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -951,7 +920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -965,7 +934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -979,7 +948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -990,7 +959,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1001,7 +970,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +981,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +992,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1034,7 +1003,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1045,7 +1014,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1025,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1067,7 +1036,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1047,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1089,7 +1058,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1100,7 +1069,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1111,7 +1080,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1122,7 +1091,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1102,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1144,7 +1113,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1155,7 +1124,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1166,7 +1135,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1177,7 +1146,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1188,7 +1157,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1199,7 +1168,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1210,7 +1179,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1221,7 +1190,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -1232,7 +1201,7 @@
         <v>8.4829000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -1243,7 +1212,7 @@
         <v>0.33034000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1254,7 +1223,7 @@
         <v>0.1177</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1234,7 @@
         <v>0.11133999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -1276,7 +1245,7 @@
         <v>0.16736999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1287,7 +1256,7 @@
         <v>0.18842</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1298,7 +1267,7 @@
         <v>8.9286000000000004E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -1309,7 +1278,7 @@
         <v>9.5662999999999998E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -1320,7 +1289,7 @@
         <v>0.44388</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -1331,7 +1300,7 @@
         <v>1.3393E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -1342,7 +1311,7 @@
         <v>0.44388</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -1353,7 +1322,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -1364,7 +1333,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1375,7 +1344,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1386,7 +1355,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -1397,7 +1366,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -1408,7 +1377,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -1419,7 +1388,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -1430,7 +1399,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1410,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1452,7 +1421,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -1463,7 +1432,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -1474,7 +1443,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1454,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -1496,7 +1465,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1507,7 +1476,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -1518,7 +1487,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -1529,7 +1498,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -1540,7 +1509,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -1551,7 +1520,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -1562,7 +1531,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -1573,7 +1542,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -1584,7 +1553,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -1595,7 +1564,7 @@
         <v>0.51629000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -1606,7 +1575,7 @@
         <v>0.51629000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -1617,7 +1586,7 @@
         <v>0.51629000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1628,7 +1597,7 @@
         <v>0.51629000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -1639,7 +1608,7 @@
         <v>0.51629000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -1650,7 +1619,7 @@
         <v>0.42518</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -1661,7 +1630,7 @@
         <v>0.42518</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1641,7 @@
         <v>0.51629000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>50</v>
       </c>
@@ -1683,7 +1652,7 @@
         <v>0.32747999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>54</v>
       </c>
@@ -1694,7 +1663,7 @@
         <v>0.42518</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -1705,7 +1674,7 @@
         <v>0.42518</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -1719,7 +1688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>48</v>
       </c>
@@ -1733,7 +1702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -1761,7 +1730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -1775,7 +1744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>53</v>
       </c>
@@ -1789,7 +1758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>57</v>
       </c>
@@ -1803,7 +1772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -1817,7 +1786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -1845,7 +1814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>43</v>
       </c>
@@ -1859,7 +1828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>50</v>
       </c>
@@ -1873,7 +1842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -1884,7 +1853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>47</v>
       </c>
@@ -1898,7 +1867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -1912,7 +1881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>48</v>
       </c>
@@ -1926,7 +1895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -1940,7 +1909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -1954,7 +1923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -1968,7 +1937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>53</v>
       </c>
@@ -1982,7 +1951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>57</v>
       </c>
@@ -1996,7 +1965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -2010,7 +1979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -2024,7 +1993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>54</v>
       </c>
@@ -2038,7 +2007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>43</v>
       </c>
@@ -2052,7 +2021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -2066,7 +2035,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>53</v>
       </c>
@@ -2077,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -2088,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -2099,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>54</v>
       </c>
@@ -2110,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -2121,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -2135,7 +2104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -2146,7 +2115,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -2157,7 +2126,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -2168,7 +2137,7 @@
         <v>6.4050000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>48</v>
       </c>
@@ -2179,7 +2148,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -2190,7 +2159,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2170,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -2212,7 +2181,7 @@
         <v>6.0549999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>53</v>
       </c>
@@ -2223,7 +2192,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>57</v>
       </c>
@@ -2234,7 +2203,7 @@
         <v>6.2549999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -2245,7 +2214,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -2256,7 +2225,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>54</v>
       </c>
@@ -2267,7 +2236,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -2278,7 +2247,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>50</v>
       </c>
@@ -2289,7 +2258,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>50</v>
       </c>
@@ -2300,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>37</v>
       </c>
@@ -2314,7 +2283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>48</v>
       </c>
@@ -2328,7 +2297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -2342,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -2356,7 +2325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -2370,7 +2339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>53</v>
       </c>
@@ -2384,7 +2353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>57</v>
       </c>
@@ -2398,7 +2367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>36</v>
       </c>
@@ -2412,7 +2381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -2426,7 +2395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>54</v>
       </c>
@@ -2440,7 +2409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>43</v>
       </c>
@@ -2454,7 +2423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>40</v>
       </c>
@@ -2465,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -2476,7 +2445,7 @@
         <v>-6.1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>35</v>
       </c>
@@ -2490,7 +2459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -2504,7 +2473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>45</v>
       </c>
@@ -2515,7 +2484,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -2526,7 +2495,7 @@
         <v>2.7300000000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>49</v>
       </c>
@@ -2537,7 +2506,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>66</v>
       </c>
@@ -2548,7 +2517,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -2559,7 +2528,7 @@
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>47</v>
       </c>
@@ -2570,7 +2539,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>55</v>
       </c>
@@ -2581,7 +2550,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>52</v>
       </c>
@@ -2592,7 +2561,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -2603,7 +2572,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -2614,7 +2583,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -2625,7 +2594,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -2636,7 +2605,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>27</v>
       </c>
@@ -2647,7 +2616,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>63</v>
       </c>
@@ -2658,7 +2627,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>25</v>
       </c>
@@ -2669,7 +2638,7 @@
         <v>2.3900000000000001E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>35</v>
       </c>
@@ -2680,7 +2649,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -2691,7 +2660,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>30</v>
       </c>
@@ -2702,7 +2671,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -2713,7 +2682,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>44</v>
       </c>
@@ -2724,7 +2693,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>32</v>
       </c>
@@ -2735,7 +2704,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>41</v>
       </c>
@@ -2746,7 +2715,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -2757,7 +2726,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>45</v>
       </c>
@@ -2768,7 +2737,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>45</v>
       </c>
@@ -2779,7 +2748,7 @@
         <v>1.47E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>45</v>
       </c>
@@ -2790,7 +2759,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>45</v>
       </c>
@@ -2801,7 +2770,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>45</v>
       </c>
@@ -2812,7 +2781,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -2823,7 +2792,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>49</v>
       </c>
@@ -2834,7 +2803,7 @@
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>66</v>
       </c>
@@ -2845,7 +2814,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>40</v>
       </c>
@@ -2856,7 +2825,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>47</v>
       </c>
@@ -2867,7 +2836,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>55</v>
       </c>
@@ -2878,7 +2847,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>52</v>
       </c>
@@ -2889,7 +2858,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -2900,7 +2869,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -2911,7 +2880,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>42</v>
       </c>
@@ -2922,7 +2891,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>15</v>
       </c>
@@ -2933,7 +2902,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>27</v>
       </c>
@@ -2944,7 +2913,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>63</v>
       </c>
@@ -2955,7 +2924,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>25</v>
       </c>
@@ -2966,7 +2935,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>35</v>
       </c>
@@ -2977,7 +2946,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>23</v>
       </c>
@@ -2988,7 +2957,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>30</v>
       </c>
@@ -2999,7 +2968,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -3010,7 +2979,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>44</v>
       </c>
@@ -3021,7 +2990,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>32</v>
       </c>
@@ -3032,7 +3001,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -3043,7 +3012,7 @@
         <v>1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -3054,7 +3023,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>45</v>
       </c>
@@ -3065,7 +3034,7 @@
         <v>8.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -3076,7 +3045,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>49</v>
       </c>
@@ -3087,7 +3056,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>66</v>
       </c>
@@ -3098,7 +3067,7 @@
         <v>0.77900000000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -3109,7 +3078,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>47</v>
       </c>
@@ -3120,7 +3089,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>55</v>
       </c>
@@ -3131,7 +3100,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>52</v>
       </c>
@@ -3142,7 +3111,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -3153,7 +3122,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -3164,7 +3133,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>42</v>
       </c>
@@ -3175,7 +3144,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -3186,7 +3155,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>27</v>
       </c>
@@ -3197,7 +3166,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>63</v>
       </c>
@@ -3208,7 +3177,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>25</v>
       </c>
@@ -3219,7 +3188,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>35</v>
       </c>
@@ -3230,7 +3199,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -3241,7 +3210,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>30</v>
       </c>
@@ -3252,7 +3221,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>33</v>
       </c>
@@ -3263,7 +3232,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>44</v>
       </c>
@@ -3274,7 +3243,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>32</v>
       </c>
@@ -3285,7 +3254,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>41</v>
       </c>
@@ -3296,7 +3265,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -3307,7 +3276,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>45</v>
       </c>
@@ -3318,7 +3287,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -3332,7 +3301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>50</v>
       </c>
@@ -3346,7 +3315,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -3360,7 +3329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>57</v>
       </c>
@@ -3374,7 +3343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -3388,7 +3357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>54</v>
       </c>
@@ -3402,7 +3371,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>48</v>
       </c>
@@ -3416,7 +3385,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>37</v>
       </c>
@@ -3430,7 +3399,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -3444,7 +3413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>36</v>
       </c>
@@ -3458,7 +3427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>36</v>
       </c>
@@ -3472,7 +3441,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>37</v>
       </c>
@@ -3486,7 +3455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>57</v>
       </c>
@@ -3500,7 +3469,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>50</v>
       </c>
@@ -3514,7 +3483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>53</v>
       </c>
@@ -3528,7 +3497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>43</v>
       </c>
@@ -3542,7 +3511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>43</v>
       </c>
@@ -3556,7 +3525,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -3570,7 +3539,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>24</v>
       </c>
@@ -3584,7 +3553,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>53</v>
       </c>
@@ -3598,7 +3567,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>54</v>
       </c>
@@ -3612,7 +3581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>48</v>
       </c>
@@ -3626,7 +3595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -3640,7 +3609,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -3652,6 +3621,17 @@
       </c>
       <c r="D245" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246" t="s">
+        <v>103</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3670,15 +3650,15 @@
       <selection activeCell="A221" sqref="A221:XFD244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="43.64453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.76171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3692,7 +3672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -3703,7 +3683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3714,7 +3694,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -3725,7 +3705,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3736,7 +3716,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3747,7 +3727,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3758,7 +3738,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3769,7 +3749,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3783,7 +3763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -3797,7 +3777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3811,7 +3791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -3825,7 +3805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -3839,7 +3819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3853,7 +3833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -3867,7 +3847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -3881,7 +3861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3895,7 +3875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -3909,7 +3889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -3923,7 +3903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3934,7 +3914,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3945,7 +3925,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3956,7 +3936,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3967,7 +3947,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -3978,7 +3958,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3989,7 +3969,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4000,7 +3980,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -4011,7 +3991,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -4022,7 +4002,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -4033,7 +4013,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -4044,7 +4024,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -4055,7 +4035,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -4066,7 +4046,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4077,7 +4057,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -4088,7 +4068,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4099,7 +4079,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -4110,7 +4090,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -4121,7 +4101,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -4132,7 +4112,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -4143,7 +4123,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -4154,7 +4134,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -4165,7 +4145,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -4176,7 +4156,7 @@
         <v>0.35598999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -4187,7 +4167,7 @@
         <v>0.10347000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4198,7 +4178,7 @@
         <v>0.1552</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -4209,7 +4189,7 @@
         <v>0.1552</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -4220,7 +4200,7 @@
         <v>4.4366000000000003E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -4231,7 +4211,7 @@
         <v>0.16943</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -4242,7 +4222,7 @@
         <v>0.10347000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -4253,7 +4233,7 @@
         <v>0.37919000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -4264,7 +4244,7 @@
         <v>4.4894999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -4275,7 +4255,7 @@
         <v>0.10347000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -4286,7 +4266,7 @@
         <v>0.38532</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -4297,7 +4277,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -4308,7 +4288,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -4319,7 +4299,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -4330,7 +4310,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -4341,7 +4321,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -4352,7 +4332,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -4363,7 +4343,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -4374,7 +4354,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -4385,7 +4365,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4396,7 +4376,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -4407,7 +4387,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -4418,7 +4398,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -4429,7 +4409,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -4440,7 +4420,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4451,7 +4431,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -4462,7 +4442,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -4473,7 +4453,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -4484,7 +4464,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -4495,7 +4475,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -4506,7 +4486,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -4517,7 +4497,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -4528,7 +4508,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -4539,7 +4519,7 @@
         <v>0.14571999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -4550,7 +4530,7 @@
         <v>0.14571999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -4561,7 +4541,7 @@
         <v>0.14571999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -4572,7 +4552,7 @@
         <v>0.14571999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -4583,7 +4563,7 @@
         <v>0.12371</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -4594,7 +4574,7 @@
         <v>0.12371</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -4605,7 +4585,7 @@
         <v>0.12371</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -4616,7 +4596,7 @@
         <v>0.12371</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -4627,7 +4607,7 @@
         <v>0.14571999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -4638,7 +4618,7 @@
         <v>0.14571999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>50</v>
       </c>
@@ -4649,7 +4629,7 @@
         <v>0.66313999999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -4663,7 +4643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -4677,7 +4657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -4691,7 +4671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -4705,7 +4685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -4719,7 +4699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>43</v>
       </c>
@@ -4733,7 +4713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>37</v>
       </c>
@@ -4747,7 +4727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>48</v>
       </c>
@@ -4761,7 +4741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -4775,7 +4755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -4789,7 +4769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>53</v>
       </c>
@@ -4803,7 +4783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>50</v>
       </c>
@@ -4817,7 +4797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -4828,7 +4808,7 @@
         <v>9.73</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>47</v>
       </c>
@@ -4842,7 +4822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>53</v>
       </c>
@@ -4856,7 +4836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -4870,7 +4850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -4884,7 +4864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -4898,7 +4878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -4912,7 +4892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -4926,7 +4906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -4940,7 +4920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>57</v>
       </c>
@@ -4954,7 +4934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -4968,7 +4948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -4982,7 +4962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -4996,7 +4976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -5010,7 +4990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>43</v>
       </c>
@@ -5021,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>53</v>
       </c>
@@ -5032,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -5043,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>54</v>
       </c>
@@ -5054,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>57</v>
       </c>
@@ -5065,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -5079,7 +5059,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -5090,7 +5070,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -5101,7 +5081,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -5112,7 +5092,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>54</v>
       </c>
@@ -5123,7 +5103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -5134,7 +5114,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>57</v>
       </c>
@@ -5145,7 +5125,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -5156,7 +5136,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -5167,7 +5147,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>48</v>
       </c>
@@ -5178,7 +5158,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -5189,7 +5169,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -5200,7 +5180,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>43</v>
       </c>
@@ -5211,7 +5191,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>50</v>
       </c>
@@ -5222,7 +5202,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>50</v>
       </c>
@@ -5233,7 +5213,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -5247,7 +5227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>48</v>
       </c>
@@ -5261,7 +5241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>54</v>
       </c>
@@ -5275,7 +5255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>57</v>
       </c>
@@ -5289,7 +5269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -5303,7 +5283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -5317,7 +5297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>43</v>
       </c>
@@ -5331,7 +5311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -5345,7 +5325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>36</v>
       </c>
@@ -5359,7 +5339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -5373,7 +5353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>53</v>
       </c>
@@ -5387,7 +5367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>40</v>
       </c>
@@ -5398,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -5409,7 +5389,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -5423,7 +5403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -5437,7 +5417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -5448,7 +5428,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>52</v>
       </c>
@@ -5459,7 +5439,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>49</v>
       </c>
@@ -5470,7 +5450,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>66</v>
       </c>
@@ -5481,7 +5461,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>41</v>
       </c>
@@ -5492,7 +5472,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -5503,7 +5483,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>63</v>
       </c>
@@ -5514,7 +5494,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -5525,7 +5505,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>27</v>
       </c>
@@ -5536,7 +5516,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -5547,7 +5527,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>35</v>
       </c>
@@ -5558,7 +5538,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>33</v>
       </c>
@@ -5569,7 +5549,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>32</v>
       </c>
@@ -5580,7 +5560,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>40</v>
       </c>
@@ -5591,7 +5571,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -5602,7 +5582,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -5613,7 +5593,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>23</v>
       </c>
@@ -5624,7 +5604,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>44</v>
       </c>
@@ -5635,7 +5615,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -5646,7 +5626,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -5657,7 +5637,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -5668,7 +5648,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>55</v>
       </c>
@@ -5679,7 +5659,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>25</v>
       </c>
@@ -5690,7 +5670,7 @@
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -5701,7 +5681,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>45</v>
       </c>
@@ -5712,7 +5692,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>45</v>
       </c>
@@ -5723,7 +5703,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>45</v>
       </c>
@@ -5734,7 +5714,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>45</v>
       </c>
@@ -5745,7 +5725,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>41</v>
       </c>
@@ -5756,7 +5736,7 @@
         <v>1.388E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -5767,7 +5747,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -5778,7 +5758,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -5789,7 +5769,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -5800,7 +5780,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>47</v>
       </c>
@@ -5811,7 +5791,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>42</v>
       </c>
@@ -5822,7 +5802,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -5833,7 +5813,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>52</v>
       </c>
@@ -5844,7 +5824,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>63</v>
       </c>
@@ -5855,7 +5835,7 @@
         <v>1.6209999999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -5866,7 +5846,7 @@
         <v>2.836E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>49</v>
       </c>
@@ -5877,7 +5857,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>44</v>
       </c>
@@ -5888,7 +5868,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>30</v>
       </c>
@@ -5899,7 +5879,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -5910,7 +5890,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -5921,7 +5901,7 @@
         <v>2.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>66</v>
       </c>
@@ -5932,7 +5912,7 @@
         <v>1.285E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>55</v>
       </c>
@@ -5943,7 +5923,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>25</v>
       </c>
@@ -5954,7 +5934,7 @@
         <v>5.7200000000000003E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>33</v>
       </c>
@@ -5965,7 +5945,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>40</v>
       </c>
@@ -5976,7 +5956,7 @@
         <v>2.903E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -5987,7 +5967,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -5998,7 +5978,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -6009,7 +5989,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>25</v>
       </c>
@@ -6020,7 +6000,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>63</v>
       </c>
@@ -6031,7 +6011,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>40</v>
       </c>
@@ -6042,7 +6022,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>44</v>
       </c>
@@ -6053,7 +6033,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>55</v>
       </c>
@@ -6064,7 +6044,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>30</v>
       </c>
@@ -6075,7 +6055,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>47</v>
       </c>
@@ -6086,7 +6066,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -6097,7 +6077,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>52</v>
       </c>
@@ -6108,7 +6088,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>27</v>
       </c>
@@ -6119,7 +6099,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -6130,7 +6110,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>41</v>
       </c>
@@ -6141,7 +6121,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>35</v>
       </c>
@@ -6152,7 +6132,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>33</v>
       </c>
@@ -6163,7 +6143,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -6174,7 +6154,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -6185,7 +6165,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>32</v>
       </c>
@@ -6196,7 +6176,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>66</v>
       </c>
@@ -6207,7 +6187,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>15</v>
       </c>
@@ -6218,7 +6198,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>49</v>
       </c>
@@ -6229,7 +6209,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>42</v>
       </c>
@@ -6240,7 +6220,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>45</v>
       </c>
@@ -6251,7 +6231,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>50</v>
       </c>
@@ -6265,7 +6245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>50</v>
       </c>
@@ -6279,7 +6259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>53</v>
       </c>
@@ -6293,7 +6273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>53</v>
       </c>
@@ -6307,7 +6287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>43</v>
       </c>
@@ -6321,7 +6301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>43</v>
       </c>
@@ -6335,7 +6315,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>36</v>
       </c>
@@ -6349,7 +6329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>36</v>
       </c>
@@ -6363,7 +6343,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>54</v>
       </c>
@@ -6377,7 +6357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>54</v>
       </c>
@@ -6391,7 +6371,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>57</v>
       </c>
@@ -6405,7 +6385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>57</v>
       </c>
@@ -6419,7 +6399,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>37</v>
       </c>
@@ -6433,7 +6413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>37</v>
       </c>
@@ -6447,7 +6427,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>48</v>
       </c>
@@ -6461,7 +6441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>48</v>
       </c>
@@ -6475,7 +6455,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>24</v>
       </c>
@@ -6489,7 +6469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -6503,7 +6483,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -6517,7 +6497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -6531,7 +6511,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -6545,7 +6525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -6559,7 +6539,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -6573,7 +6553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -6596,19 +6576,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C525CF74-9993-4A8B-8590-97C66EAC78D6}">
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+    <sheetView topLeftCell="A217" workbookViewId="0">
       <selection activeCell="A226" sqref="A226:XFD249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="43.64453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.76171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6622,7 +6602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -6633,7 +6613,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6644,7 +6624,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6655,7 +6635,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6666,7 +6646,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -6677,7 +6657,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -6688,7 +6668,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -6699,7 +6679,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6713,7 +6693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -6727,7 +6707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -6741,7 +6721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -6755,7 +6735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -6769,7 +6749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -6783,7 +6763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -6797,7 +6777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -6811,7 +6791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -6825,7 +6805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -6839,7 +6819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6853,7 +6833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -6864,7 +6844,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -6875,7 +6855,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -6886,7 +6866,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6897,7 +6877,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6908,7 +6888,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -6919,7 +6899,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -6930,7 +6910,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -6941,7 +6921,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -6952,7 +6932,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -6963,7 +6943,7 @@
         <v>0.69299999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6974,7 +6954,7 @@
         <v>0.13943</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -6985,7 +6965,7 @@
         <v>0.13943</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6996,7 +6976,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7007,7 +6987,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -7018,7 +6998,7 @@
         <v>0.16388</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -7029,7 +7009,7 @@
         <v>0.13943</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -7040,7 +7020,7 @@
         <v>4.471E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -7051,7 +7031,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -7062,7 +7042,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -7073,7 +7053,7 @@
         <v>0.14224000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -7084,7 +7064,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -7095,7 +7075,7 @@
         <v>0.17186000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -7106,7 +7086,7 @@
         <v>0.20301</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -7117,7 +7097,7 @@
         <v>0.19656000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -7128,7 +7108,7 @@
         <v>0.19656000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -7139,7 +7119,7 @@
         <v>0.29483999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -7150,7 +7130,7 @@
         <v>1.7198999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -7161,7 +7141,7 @@
         <v>0.44039</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -7172,7 +7152,7 @@
         <v>0.29483999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -7183,7 +7163,7 @@
         <v>5.3705999999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -7194,7 +7174,7 @@
         <v>7.7336000000000002E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -7205,7 +7185,7 @@
         <v>5.3705999999999997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -7216,7 +7196,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -7227,7 +7207,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -7238,7 +7218,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -7249,7 +7229,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -7260,7 +7240,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -7271,7 +7251,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -7282,7 +7262,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -7293,7 +7273,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -7304,7 +7284,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -7315,7 +7295,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -7326,7 +7306,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -7337,7 +7317,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -7348,7 +7328,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -7359,7 +7339,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -7370,7 +7350,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -7381,7 +7361,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -7392,7 +7372,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -7403,7 +7383,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -7414,7 +7394,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -7425,7 +7405,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -7436,7 +7416,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>57</v>
       </c>
@@ -7447,7 +7427,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -7458,7 +7438,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -7469,7 +7449,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -7480,7 +7460,7 @@
         <v>0.12934000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -7491,7 +7471,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -7502,7 +7482,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -7513,7 +7493,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>54</v>
       </c>
@@ -7524,7 +7504,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -7535,7 +7515,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -7546,7 +7526,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -7557,7 +7537,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -7571,7 +7551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -7585,7 +7565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>57</v>
       </c>
@@ -7599,7 +7579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -7613,7 +7593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -7627,7 +7607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>53</v>
       </c>
@@ -7641,7 +7621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -7655,7 +7635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -7669,7 +7649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -7683,7 +7663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>54</v>
       </c>
@@ -7697,7 +7677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -7711,7 +7691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>50</v>
       </c>
@@ -7725,7 +7705,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -7736,7 +7716,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -7750,7 +7730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -7764,7 +7744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -7778,7 +7758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -7792,7 +7772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -7806,7 +7786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>53</v>
       </c>
@@ -7820,7 +7800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -7834,7 +7814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>57</v>
       </c>
@@ -7848,7 +7828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -7862,7 +7842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -7876,7 +7856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -7890,7 +7870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -7904,7 +7884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -7918,7 +7898,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -7932,7 +7912,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -7943,7 +7923,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -7954,7 +7934,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -7965,7 +7945,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>43</v>
       </c>
@@ -7976,7 +7956,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -7987,7 +7967,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -7998,7 +7978,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>36</v>
       </c>
@@ -8009,7 +7989,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -8020,7 +8000,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>57</v>
       </c>
@@ -8031,7 +8011,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>54</v>
       </c>
@@ -8042,7 +8022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>48</v>
       </c>
@@ -8053,7 +8033,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -8064,7 +8044,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>53</v>
       </c>
@@ -8075,7 +8055,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>50</v>
       </c>
@@ -8086,7 +8066,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>50</v>
       </c>
@@ -8097,7 +8077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>54</v>
       </c>
@@ -8111,7 +8091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -8125,7 +8105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>48</v>
       </c>
@@ -8139,7 +8119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -8153,7 +8133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -8167,7 +8147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>57</v>
       </c>
@@ -8181,7 +8161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -8195,7 +8175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -8209,7 +8189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>43</v>
       </c>
@@ -8223,7 +8203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>53</v>
       </c>
@@ -8237,7 +8217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -8251,7 +8231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>40</v>
       </c>
@@ -8262,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -8273,7 +8253,7 @@
         <v>-35.1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>35</v>
       </c>
@@ -8287,7 +8267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>89</v>
       </c>
@@ -8301,7 +8281,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>92</v>
       </c>
@@ -8315,7 +8295,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>93</v>
       </c>
@@ -8329,7 +8309,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>94</v>
       </c>
@@ -8343,7 +8323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -8357,7 +8337,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>96</v>
       </c>
@@ -8371,7 +8351,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>97</v>
       </c>
@@ -8385,7 +8365,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>98</v>
       </c>
@@ -8399,7 +8379,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -8413,7 +8393,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>100</v>
       </c>
@@ -8427,7 +8407,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>101</v>
       </c>
@@ -8441,7 +8421,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>102</v>
       </c>
@@ -8455,7 +8435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>45</v>
       </c>
@@ -8466,7 +8446,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -8477,7 +8457,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>63</v>
       </c>
@@ -8488,7 +8468,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -8499,7 +8479,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>52</v>
       </c>
@@ -8510,7 +8490,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>27</v>
       </c>
@@ -8521,7 +8501,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -8532,7 +8512,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>66</v>
       </c>
@@ -8543,7 +8523,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>44</v>
       </c>
@@ -8554,7 +8534,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>40</v>
       </c>
@@ -8565,7 +8545,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -8576,7 +8556,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>30</v>
       </c>
@@ -8587,7 +8567,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -8598,7 +8578,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -8609,7 +8589,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -8620,7 +8600,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>25</v>
       </c>
@@ -8631,7 +8611,7 @@
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>49</v>
       </c>
@@ -8642,7 +8622,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>23</v>
       </c>
@@ -8653,7 +8633,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>55</v>
       </c>
@@ -8664,7 +8644,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>41</v>
       </c>
@@ -8675,7 +8655,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -8686,7 +8666,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>47</v>
       </c>
@@ -8697,7 +8677,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>35</v>
       </c>
@@ -8708,7 +8688,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>45</v>
       </c>
@@ -8719,7 +8699,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>45</v>
       </c>
@@ -8730,7 +8710,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>45</v>
       </c>
@@ -8741,7 +8721,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>45</v>
       </c>
@@ -8752,7 +8732,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>45</v>
       </c>
@@ -8763,7 +8743,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -8774,7 +8754,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -8785,7 +8765,7 @@
         <v>2.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>40</v>
       </c>
@@ -8796,7 +8776,7 @@
         <v>2.903E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>55</v>
       </c>
@@ -8807,7 +8787,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>27</v>
       </c>
@@ -8818,7 +8798,7 @@
         <v>2.836E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>47</v>
       </c>
@@ -8829,7 +8809,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>30</v>
       </c>
@@ -8840,7 +8820,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>35</v>
       </c>
@@ -8851,7 +8831,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>32</v>
       </c>
@@ -8862,7 +8842,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>63</v>
       </c>
@@ -8873,7 +8853,7 @@
         <v>1.6209999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -8884,7 +8864,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>52</v>
       </c>
@@ -8895,7 +8875,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -8906,7 +8886,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>44</v>
       </c>
@@ -8917,7 +8897,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>66</v>
       </c>
@@ -8928,7 +8908,7 @@
         <v>1.285E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>33</v>
       </c>
@@ -8939,7 +8919,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>42</v>
       </c>
@@ -8950,7 +8930,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -8961,7 +8941,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -8972,7 +8952,7 @@
         <v>1.481E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>41</v>
       </c>
@@ -8983,7 +8963,7 @@
         <v>1.388E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>49</v>
       </c>
@@ -8994,7 +8974,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>25</v>
       </c>
@@ -9005,7 +8985,7 @@
         <v>5.7200000000000003E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>45</v>
       </c>
@@ -9016,7 +8996,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -9027,7 +9007,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>33</v>
       </c>
@@ -9038,7 +9018,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>23</v>
       </c>
@@ -9049,7 +9029,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>55</v>
       </c>
@@ -9060,7 +9040,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>42</v>
       </c>
@@ -9071,7 +9051,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>41</v>
       </c>
@@ -9082,7 +9062,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>25</v>
       </c>
@@ -9093,7 +9073,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>40</v>
       </c>
@@ -9104,7 +9084,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>35</v>
       </c>
@@ -9115,7 +9095,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -9126,7 +9106,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>52</v>
       </c>
@@ -9137,7 +9117,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>32</v>
       </c>
@@ -9148,7 +9128,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>44</v>
       </c>
@@ -9159,7 +9139,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>30</v>
       </c>
@@ -9170,7 +9150,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>27</v>
       </c>
@@ -9181,7 +9161,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -9192,7 +9172,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>49</v>
       </c>
@@ -9203,7 +9183,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>63</v>
       </c>
@@ -9214,7 +9194,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -9225,7 +9205,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>66</v>
       </c>
@@ -9236,7 +9216,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -9247,7 +9227,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>47</v>
       </c>
@@ -9258,7 +9238,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>45</v>
       </c>
@@ -9269,7 +9249,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>50</v>
       </c>
@@ -9283,7 +9263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>50</v>
       </c>
@@ -9297,7 +9277,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>53</v>
       </c>
@@ -9311,7 +9291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>53</v>
       </c>
@@ -9325,7 +9305,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>43</v>
       </c>
@@ -9339,7 +9319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>43</v>
       </c>
@@ -9353,7 +9333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>36</v>
       </c>
@@ -9367,7 +9347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>36</v>
       </c>
@@ -9381,7 +9361,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>54</v>
       </c>
@@ -9395,7 +9375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>54</v>
       </c>
@@ -9409,7 +9389,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>57</v>
       </c>
@@ -9423,7 +9403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>57</v>
       </c>
@@ -9437,7 +9417,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>37</v>
       </c>
@@ -9451,7 +9431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>37</v>
       </c>
@@ -9465,7 +9445,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>48</v>
       </c>
@@ -9479,7 +9459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>48</v>
       </c>
@@ -9493,7 +9473,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>24</v>
       </c>
@@ -9507,7 +9487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>24</v>
       </c>
@@ -9521,7 +9501,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -9535,7 +9515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -9549,7 +9529,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -9563,7 +9543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -9577,7 +9557,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -9591,7 +9571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>8</v>
       </c>
